--- a/sample datas/Shopme+Sample+Customers+Data/Shopme Sample Customers Data/Shopme Sample Customers Data.xlsx
+++ b/sample datas/Shopme+Sample+Customers+Data/Shopme Sample Customers Data/Shopme Sample Customers Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Spring E-Commerce Course\Dummy Data\Shopme Sample Customers Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workshopme1\sample datas\Shopme+Sample+Customers+Data\Shopme Sample Customers Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB31730-574C-484F-A2D0-B707BC5B4B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="5" r:id="rId1"/>
@@ -884,8 +885,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,6 +917,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -940,22 +949,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1233,38 +1245,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.26953125" customWidth="1"/>
+    <col min="8" max="8" width="36.1796875" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" ht="31" x14ac:dyDescent="0.7">
+      <c r="B2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1421,11 +1435,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1460,11 +1474,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1499,11 +1513,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1538,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1554,7 +1568,7 @@
       <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1574,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1610,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1649,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1690,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1770,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1848,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1887,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -1961,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2078,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2117,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2158,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2199,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2240,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2281,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2322,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2363,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2402,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2437,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2475,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2513,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2549,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2587,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2625,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2666,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2708,8 +2722,13 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{F4138EF5-05D8-450C-BD47-701906B61C70}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{530219F0-89BA-483D-877E-B5E6A93C4202}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{030DAE27-B684-4049-97A5-3CCD4803AD8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <ignoredErrors>
     <ignoredError sqref="F5 F13:F19 F25:F37" numberStoredAsText="1"/>
   </ignoredErrors>
